--- a/import/data_import/PNC00001 UCB-J_consortium/PN000005 UCBJ-Leuven1/PublicnEUro_record_Group1.xlsx
+++ b/import/data_import/PNC00001 UCB-J_consortium/PN000005 UCBJ-Leuven1/PublicnEUro_record_Group1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\UCBJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PNC00001 UCB-J_consortium\PN000005 UCBJ-Leuven1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F1E5D-2F29-457D-8BAD-2A7AD934DDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E523E2-7174-434F-A4E0-984B1FAAA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>your future DOI</t>
   </si>
   <si>
-    <t>PN000006</t>
-  </si>
-  <si>
     <t>BIDS raw</t>
   </si>
   <si>
@@ -302,7 +299,10 @@
     <t xml:space="preserve">Leuven PET UCB-J dataset 1 in control participants </t>
   </si>
   <si>
-    <t>10.70883/FIYQ9929</t>
+    <t>PN000005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.70883/BKWA8149</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -961,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,20 +1225,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="80"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -1245,7 +1248,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1256,7 +1259,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -1267,7 +1270,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -1283,20 +1286,20 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="84" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.35">
@@ -1307,7 +1310,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="29" x14ac:dyDescent="0.35">
@@ -1325,7 +1328,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="82" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1351,7 +1354,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1375,7 +1378,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1401,7 +1404,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1505,7 +1508,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -1521,7 +1524,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
@@ -1531,7 +1534,7 @@
       <c r="B23" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="75" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1552,6 +1555,7 @@
     <hyperlink ref="B16" r:id="rId5" xr:uid="{042E520D-DC3A-465C-A1A0-E0407B43AE55}"/>
     <hyperlink ref="B7" r:id="rId6" location="dataset_descriptionjson" xr:uid="{F6C4DD7F-BDF1-415D-A415-DE85F43495B0}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{FC9DB523-70D6-417A-B2D7-B4597C9DE102}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{AEDE2080-7C68-410A-A4F5-0D49A13BEEA1}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1628,7 +1632,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1679,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1689,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2741,37 +2745,37 @@
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -3828,10 +3832,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3902,10 +3906,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="40"/>
     </row>
@@ -4969,16 +4973,16 @@
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="74">
         <v>44136</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/import/data_import/PNC00001 UCB-J_consortium/PN000005 UCBJ-Leuven1/PublicnEUro_record_Group1.xlsx
+++ b/import/data_import/PNC00001 UCB-J_consortium/PN000005 UCBJ-Leuven1/PublicnEUro_record_Group1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PNC00001 UCB-J_consortium\PN000005 UCBJ-Leuven1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E523E2-7174-434F-A4E0-984B1FAAA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB2EBC-299E-4A77-8636-0309FE17167F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
     <sheet name="participants_info" sheetId="6" r:id="rId2"/>
     <sheet name="data-controller" sheetId="2" r:id="rId3"/>
-    <sheet name="authors" sheetId="3" r:id="rId4"/>
-    <sheet name="dataset curators" sheetId="7" r:id="rId5"/>
-    <sheet name="funding" sheetId="4" r:id="rId6"/>
-    <sheet name="publications" sheetId="5" r:id="rId7"/>
+    <sheet name="DUA" sheetId="8" r:id="rId4"/>
+    <sheet name="authors" sheetId="3" r:id="rId5"/>
+    <sheet name="dataset curators" sheetId="7" r:id="rId6"/>
+    <sheet name="funding" sheetId="4" r:id="rId7"/>
+    <sheet name="publications" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t># bold fields are required</t>
   </si>
@@ -303,6 +304,33 @@
   </si>
   <si>
     <t>https://doi.org/10.70883/BKWA8149</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>i.e.</t>
+  </si>
+  <si>
+    <t>None (CCBY)</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Please copy/paste here your DUA, it will be displayed as a tab on the website -- of course the text/doc/pdf file you use for DUA is the one user mst sign, this field is for display purpose of your terms</t>
+  </si>
+  <si>
+    <t>only users from EU and adequate countries</t>
+  </si>
+  <si>
+    <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses</t>
+  </si>
+  <si>
+    <t>only users from EU and adequate countries + data controller oversight</t>
+  </si>
+  <si>
+    <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses  + data controller oversight</t>
   </si>
 </sst>
 </file>
@@ -312,11 +340,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,6 +507,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -795,17 +851,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,64 +874,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -884,116 +937,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1214,7 +1277,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1225,29 +1288,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="81"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1255,10 +1318,10 @@
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1266,10 +1329,10 @@
       <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1277,8 +1340,8 @@
       <c r="A6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60">
+      <c r="B6" s="53"/>
+      <c r="C6" s="59">
         <v>1</v>
       </c>
     </row>
@@ -1286,10 +1349,10 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1297,8 +1360,8 @@
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="59" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1306,10 +1369,10 @@
       <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1317,7 +1380,7 @@
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1328,7 +1391,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1354,7 +1417,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1378,7 +1441,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1404,7 +1467,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1428,7 +1491,7 @@
       <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="14"/>
@@ -1454,7 +1517,7 @@
       <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14"/>
@@ -1477,13 +1540,13 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1506,21 +1569,23 @@
       <c r="A18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1528,13 +1593,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1577,7 +1642,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1590,7 +1655,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8">
@@ -1620,7 +1685,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8">
@@ -1628,19 +1693,19 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1679,20 +1744,20 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="1"/>
@@ -2703,6 +2768,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E70BED-B7E9-44CA-B49E-34CE9EA1B0B5}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="79.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="A1" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B3" s="89"/>
+      <c r="D3" s="90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="89"/>
+      <c r="D4" s="86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B5" s="89"/>
+      <c r="D5" s="90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="89"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="89"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="89"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="89"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="89"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="89"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="89"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="89"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="89"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="89"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="89"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="89"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="89"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B19"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B1" xr:uid="{85F9226D-FB15-4253-AA63-75A117A397E8}">
+      <formula1>$D$1:$D$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D1000"/>
@@ -2732,66 +2905,66 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3797,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845FEB05-2599-4045-8FC7-E4172C92513F}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B9"/>
@@ -3823,40 +3996,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="64"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="63"/>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3864,7 +4037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C1000"/>
@@ -3894,29 +4067,29 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -4927,7 +5100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1000"/>
@@ -4958,38 +5131,38 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="73">
         <v>44136</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/import/data_import/PNC00001 UCB-J_consortium/PN000005 UCBJ-Leuven1/PublicnEUro_record_Group1.xlsx
+++ b/import/data_import/PNC00001 UCB-J_consortium/PN000005 UCBJ-Leuven1/PublicnEUro_record_Group1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicnEUro\DataCatalogue\import\data_import\PNC00001 UCB-J_consortium\PN000005 UCBJ-Leuven1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB2EBC-299E-4A77-8636-0309FE17167F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB699CD-1742-4923-91EE-F871BF3094FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t># bold fields are required</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Terms</t>
   </si>
   <si>
-    <t>Please copy/paste here your DUA, it will be displayed as a tab on the website -- of course the text/doc/pdf file you use for DUA is the one user mst sign, this field is for display purpose of your terms</t>
-  </si>
-  <si>
     <t>only users from EU and adequate countries</t>
   </si>
   <si>
@@ -331,6 +328,20 @@
   </si>
   <si>
     <t>Institution of users from non EU or adequate countries must be able to sign standard contractual clauses  + data controller oversight</t>
+  </si>
+  <si>
+    <t>By accepting this agreement, I become the data controller (as defined under the GDPR) of the data that I have access to, and am responsible that I access these data under the following terms:
+1.	I will comply with all relevant rules and regulations imposed by my institution and my government. Rules established in this agreement thus take place in addition to existing general data protection regulations that are applicable in my country.
+2.	I will not attempt to establish or retrieve the identity of the study participants. I will not link these data to any other database in a way that could provide identifying information. I shall not request the pseudonymisation key that would link these data to an individual’s personal information, nor will I accept any additional information about individual participants under this Data Use Agreement.
+3.	I will not redistribute these data or share access to these data with others, unless they have independently applied and been granted access to these data, i.e., signed this Data Use Agreement. This includes individuals in my institution.
+4.	I will reference the specific source of the accessed data when publicly presenting any results or algorithms that benefited from their use: (a) Papers, book chapters, books, posters, oral presentations, and all other presentations of results derived from the data should acknowledge the origin of the data as follows: “Data were provided (in part) by the Department of Movement Sciences, KU Leuven, Belgium”. (b) Authors of publications or presentations using the data should cite relevant publications describing the methods developed and used by the Department of Movement Sciences to acquire and process the data. The specific publications that are appropriate to cite in any given study will depend on what the data were used and for what purposes. When applicable, a list of publications will be included in the collection. (c) Neither the Department of Movement Sciences or Leuven, nor the researchers that provide this data will be liable for any results and/or derived data. They shall not be included as an author of publications or presentations without consent.
+5.	Failure to abide by these guidelines will result in termination of my privileges to access these data.</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Content</t>
   </si>
 </sst>
 </file>
@@ -340,11 +351,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,17 +869,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,61 +892,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,126 +955,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1276,7 +1294,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1288,20 +1306,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="83" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="80"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="84"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
@@ -1349,7 +1367,7 @@
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="87" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="59" t="s">
@@ -1360,7 +1378,7 @@
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="59" t="s">
         <v>61</v>
       </c>
@@ -1391,7 +1409,7 @@
       <c r="A11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13"/>
@@ -1417,7 +1435,7 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1441,7 +1459,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="85" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="14"/>
@@ -1467,7 +1485,7 @@
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2769,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E70BED-B7E9-44CA-B49E-34CE9EA1B0B5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2780,95 +2798,106 @@
     <col min="2" max="2" width="79.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.45">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D2" s="76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B3" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="86" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B4" s="90"/>
+      <c r="D4" s="78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.45">
-      <c r="B3" s="89"/>
-      <c r="D3" s="90" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="90"/>
+      <c r="D5" s="76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="89"/>
-      <c r="D4" s="86" t="s">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="B6" s="90"/>
+      <c r="D6" s="78" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.45">
-      <c r="B5" s="89"/>
-      <c r="D5" s="90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="89"/>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="89"/>
+      <c r="B7" s="90"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="89"/>
+      <c r="B8" s="90"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="89"/>
+      <c r="B9" s="90"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="89"/>
+      <c r="B10" s="90"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="89"/>
+      <c r="B11" s="90"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="89"/>
+      <c r="B12" s="90"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="89"/>
+      <c r="B13" s="90"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="89"/>
+      <c r="B14" s="90"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="89"/>
+      <c r="B15" s="90"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="89"/>
+      <c r="B16" s="90"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="89"/>
+      <c r="B17" s="90"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="89"/>
+      <c r="B18" s="90"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="89"/>
+      <c r="B19" s="90"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B3:B20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B1" xr:uid="{85F9226D-FB15-4253-AA63-75A117A397E8}">
-      <formula1>$D$1:$D$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="select from drop down menu" sqref="B2" xr:uid="{85F9226D-FB15-4253-AA63-75A117A397E8}">
+      <formula1>$D$2:$D$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
